--- a/data_year/zb/固定资产投资和房地产/房地产开发企业土地开发及购置.xlsx
+++ b/data_year/zb/固定资产投资和房地产/房地产开发企业土地开发及购置.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,394 +458,244 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8206.7143</v>
+      </c>
       <c r="C2" t="n">
-        <v>733.99</v>
+        <v>9999.915999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>14754.7727</v>
+        <v>31457.9531</v>
       </c>
       <c r="E2" t="n">
-        <v>16905.2435</v>
+        <v>39953.0986</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8894.028</v>
+      </c>
       <c r="C3" t="n">
-        <v>1038.7746</v>
+        <v>11527.2522</v>
       </c>
       <c r="D3" t="n">
-        <v>14582.1339</v>
+        <v>40220.7648</v>
       </c>
       <c r="E3" t="n">
-        <v>23408.9929</v>
+        <v>44327.442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7409.6391</v>
+      </c>
       <c r="C4" t="n">
-        <v>1445.8123</v>
+        <v>12100.1507</v>
       </c>
       <c r="D4" t="n">
-        <v>19178.6525</v>
+        <v>40195.9926</v>
       </c>
       <c r="E4" t="n">
-        <v>31356.7845</v>
+        <v>35666.7964</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4888.9502</v>
+        <v>9918.2857</v>
       </c>
       <c r="C5" t="n">
-        <v>2055.1715</v>
+        <v>13501.7292</v>
       </c>
       <c r="D5" t="n">
-        <v>21782.5774</v>
+        <v>42280.4659</v>
       </c>
       <c r="E5" t="n">
-        <v>35696.4845</v>
+        <v>38814.3811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2888.57</v>
+        <v>10019.8754</v>
       </c>
       <c r="C6" t="n">
-        <v>2574.4743</v>
+        <v>17458.5288</v>
       </c>
       <c r="D6" t="n">
-        <v>39635.3</v>
+        <v>42136.2835</v>
       </c>
       <c r="E6" t="n">
-        <v>39784.6589</v>
+        <v>33383.0332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3269.3192</v>
+        <v>7621.6118</v>
       </c>
       <c r="C7" t="n">
-        <v>2904.3701</v>
+        <v>17675.4358</v>
       </c>
       <c r="D7" t="n">
-        <v>27522.0033</v>
+        <v>36638.4843</v>
       </c>
       <c r="E7" t="n">
-        <v>38253.7254</v>
+        <v>22810.7888</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3318.0374</v>
+        <v>9129.311400000001</v>
       </c>
       <c r="C8" t="n">
-        <v>3814.4869</v>
+        <v>18778.6795</v>
       </c>
       <c r="D8" t="n">
-        <v>37523.6523</v>
+        <v>35121.0077</v>
       </c>
       <c r="E8" t="n">
-        <v>36573.567</v>
+        <v>22025.2473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4573.1786</v>
+        <v>13643.3858</v>
       </c>
       <c r="C9" t="n">
-        <v>4873.249</v>
+        <v>23169.471</v>
       </c>
       <c r="D9" t="n">
-        <v>41483.9653</v>
+        <v>35747.2897</v>
       </c>
       <c r="E9" t="n">
-        <v>40245.8492</v>
+        <v>25508.2924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4831.6846</v>
+        <v>16154.0763</v>
       </c>
       <c r="C10" t="n">
-        <v>5995.6204</v>
+        <v>36387.009</v>
       </c>
       <c r="D10" t="n">
-        <v>48161.0729</v>
+        <v>45804.0199</v>
       </c>
       <c r="E10" t="n">
-        <v>39353.4257</v>
+        <v>29320.6467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5150.1414</v>
+        <v>14709.2809</v>
       </c>
       <c r="C11" t="n">
-        <v>6023.7138</v>
+        <v>41675.3857</v>
       </c>
       <c r="D11" t="n">
-        <v>32816.5435</v>
+        <v>48976.9389</v>
       </c>
       <c r="E11" t="n">
-        <v>31909.4512</v>
+        <v>25822.2894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8206.7143</v>
+        <v>17268.8336</v>
       </c>
       <c r="C12" t="n">
-        <v>9999.915999999999</v>
+        <v>44451.8726</v>
       </c>
       <c r="D12" t="n">
-        <v>31457.9531</v>
+        <v>43514.5101</v>
       </c>
       <c r="E12" t="n">
-        <v>39953.0986</v>
+        <v>25536.2826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8894.028</v>
+        <v>17756.2767</v>
       </c>
       <c r="C13" t="n">
-        <v>11527.2522</v>
+        <v>43504.6847</v>
       </c>
       <c r="D13" t="n">
-        <v>40220.7648</v>
+        <v>47490.0868</v>
       </c>
       <c r="E13" t="n">
-        <v>44327.442</v>
+        <v>21589.8573</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7409.6391</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12100.1507</v>
-      </c>
-      <c r="D14" t="n">
-        <v>40195.9926</v>
-      </c>
+        <v>9165.9696</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>35666.7964</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9918.2857</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13501.7292</v>
-      </c>
-      <c r="D15" t="n">
-        <v>42280.4659</v>
-      </c>
-      <c r="E15" t="n">
-        <v>38814.3811</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10019.8754</v>
-      </c>
-      <c r="C16" t="n">
-        <v>17458.5288</v>
-      </c>
-      <c r="D16" t="n">
-        <v>42136.2835</v>
-      </c>
-      <c r="E16" t="n">
-        <v>33383.0332</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7621.6118</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17675.4358</v>
-      </c>
-      <c r="D17" t="n">
-        <v>36638.4843</v>
-      </c>
-      <c r="E17" t="n">
-        <v>22810.7888</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9129.311400000001</v>
-      </c>
-      <c r="C18" t="n">
-        <v>18778.6795</v>
-      </c>
-      <c r="D18" t="n">
-        <v>35121.0077</v>
-      </c>
-      <c r="E18" t="n">
-        <v>22025.2473</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>13643.3858</v>
-      </c>
-      <c r="C19" t="n">
-        <v>23169.471</v>
-      </c>
-      <c r="D19" t="n">
-        <v>35747.2897</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25508.2924</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>16154.0763</v>
-      </c>
-      <c r="C20" t="n">
-        <v>36387.009</v>
-      </c>
-      <c r="D20" t="n">
-        <v>45804.0199</v>
-      </c>
-      <c r="E20" t="n">
-        <v>29320.6467</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>14709.2809</v>
-      </c>
-      <c r="C21" t="n">
-        <v>41675.3857</v>
-      </c>
-      <c r="D21" t="n">
-        <v>48976.9389</v>
-      </c>
-      <c r="E21" t="n">
-        <v>25822.2894</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>17268.8336</v>
-      </c>
-      <c r="C22" t="n">
-        <v>44451.8726</v>
-      </c>
-      <c r="D22" t="n">
-        <v>43514.5101</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25536.2826</v>
+        <v>10052.0693</v>
       </c>
     </row>
   </sheetData>
